--- a/medicine/Handicap/The_Black_Balloon/The_Black_Balloon.xlsx
+++ b/medicine/Handicap/The_Black_Balloon/The_Black_Balloon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The Black Balloon est un film australien réalisé par Elissa Down, sorti en 2008. Le film a reçu de multiples récompenses dans le monde.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas, un adolescent, doit s'occuper de son frère autiste, Charlie.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : The Black Balloon
 Réalisation : Elissa Down
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rhys Wakefield : Thomas Mollison
 Luke Ford : Charlie Mollison
@@ -629,9 +647,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été tourné de janvier à février 2007 dans Sydney et sa banlieue[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné de janvier à février 2007 dans Sydney et sa banlieue.
 </t>
         </is>
       </c>
@@ -662,18 +682,57 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nominations
-2009 : Meilleur acteur pour Rhys Wakefield, meilleur second rôle pour Erik Thomson, meilleure photographie pour Denson Baker, meilleure musique originale pour Michael Yezerski, meilleur son pour Ben Osmo et Paul Pirola aux AACTA Awards
-Récompenses
-2008 : Meilleur long métrage pour enfants aux Asia Pacific Screen Awards[3]
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : Meilleur acteur pour Rhys Wakefield, meilleur second rôle pour Erik Thomson, meilleure photographie pour Denson Baker, meilleure musique originale pour Michael Yezerski, meilleur son pour Ben Osmo et Paul Pirola aux AACTA Awards</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_Black_Balloon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_Black_Balloon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions[2]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2008 : Meilleur long métrage pour enfants aux Asia Pacific Screen Awards
 2009 : Meilleur film, meilleur réalisateur et meilleure actrice dans un second rôle pour Toni Collette aux Film Critics Circle of Australia Awards
-2009 : Meilleur film, meilleur second rôle féminin pour Toni Collette, meilleur second rôle masculin pour Luke Ford, meilleure réalisation, meilleur scénario original et meilleur montage[4] aux AACTA Awards
+2009 : Meilleur film, meilleur second rôle féminin pour Toni Collette, meilleur second rôle masculin pour Luke Ford, meilleure réalisation, meilleur scénario original et meilleur montage aux AACTA Awards
 2009 : Meilleur long métrage pour enfants aux Asia Pacific Screen Awards
 2009 : Meilleure réalisation aux ADG Awards
-2009 : Ours de cristal du meilleur long métrage dans la catégorie "Génération 14plus" à la Berlinale[5]
+2009 : Ours de cristal du meilleur long métrage dans la catégorie "Génération 14plus" à la Berlinale
 2009 : Prix d'excellence pour une réalisatrice de long métrage au Festival International du film des Hamptons
 2009 : Meilleur résultat au box-office aux Inside Film Awards
-2009 : Meilleur album de la bande originale et meilleure chanson originale pour "When We Get There" aux Screen Music Award[6]</t>
+2009 : Meilleur album de la bande originale et meilleure chanson originale pour "When We Get There" aux Screen Music Award</t>
         </is>
       </c>
     </row>
